--- a/FinalProjectRubric.xlsx
+++ b/FinalProjectRubric.xlsx
@@ -59,9 +59,6 @@
     <t>Detect distance and angle to source</t>
   </si>
   <si>
-    <t>Detect distance to source</t>
-  </si>
-  <si>
     <t>Tracking</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>Minimize software use. Hardware implementation does the work, not software.</t>
+  </si>
+  <si>
+    <t>Detect angle to source</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,13 +480,13 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -500,7 +500,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -522,13 +522,13 @@
     </row>
     <row r="7" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>10</v>
@@ -536,16 +536,16 @@
     </row>
     <row r="8" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="D8" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
